--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE73VR\Desktop\3º\econometria-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5AAE2-8A9F-40EE-BF9F-48F204A04419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12E470-A64B-48F3-A124-FADAA2F3CC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,14 +134,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,6 +219,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -344,87 +357,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{456E6B28-E7C7-48B3-98CF-333997978A72}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="9"/>
         </left>
@@ -437,8 +437,14 @@
         <bottom style="thin">
           <color indexed="9"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="9"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -458,6 +464,21 @@
           <color indexed="9"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -542,24 +563,24 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{30152ED2-A19A-4146-96F7-E18C6964834D}" name="Columna1" dataDxfId="8" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="6" xr3:uid="{1093D8BA-9377-4F75-8373-DF8865FD317D}" name="Columna2" dataDxfId="7" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="7" xr3:uid="{8ADD97F8-FD73-44E0-9277-12E48F05765E}" name="Columna3" dataDxfId="6" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="8" xr3:uid="{5F4284B4-D3CE-462F-8ABE-B7621955F38D}" name="Columna4" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{1093D8BA-9377-4F75-8373-DF8865FD317D}" name="Columna2" dataDxfId="2" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="7" xr3:uid="{8ADD97F8-FD73-44E0-9277-12E48F05765E}" name="Columna3" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="8" xr3:uid="{5F4284B4-D3CE-462F-8ABE-B7621955F38D}" name="Columna4" dataDxfId="1">
       <calculatedColumnFormula>LOG10(F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6FE0CD41-E366-41A3-8559-46BF9605C8D6}" name="Columna5" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{6FE0CD41-E366-41A3-8559-46BF9605C8D6}" name="Columna5" dataDxfId="7">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8EBA39AD-0440-481C-9A70-D89D10D4722E}" name="Columna6" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{8EBA39AD-0440-481C-9A70-D89D10D4722E}" name="Columna6" dataDxfId="6">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7170D9F4-75EC-482F-80D5-F071047DC453}" name="Columna7" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{7170D9F4-75EC-482F-80D5-F071047DC453}" name="Columna7" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{209F7BF8-D10B-4117-8757-F366C0A36B08}" name="Columna8" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{209F7BF8-D10B-4117-8757-F366C0A36B08}" name="Columna8" dataDxfId="4">
       <calculatedColumnFormula>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BE2F74CD-7018-4387-B27A-D334E610BCB0}" name="Columna9" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{BE2F74CD-7018-4387-B27A-D334E610BCB0}" name="Columna9" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -773,7 +794,7 @@
   <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -810,22 +831,22 @@
       <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -849,11 +870,11 @@
       <c r="F2" s="13">
         <v>32</v>
       </c>
-      <c r="G2" s="17">
-        <v>20938</v>
-      </c>
-      <c r="H2" s="16">
-        <v>29982</v>
+      <c r="G2" s="16">
+        <v>20.937999999999999</v>
+      </c>
+      <c r="H2" s="25">
+        <v>29.981999999999999</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I20" si="0">LOG10(F2)</f>
@@ -867,22 +888,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.66470288531585986</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.1717532177663494</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <v>1.2977000000000001</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="21">
         <v>0.82862000000000002</v>
       </c>
     </row>
@@ -906,11 +927,11 @@
       <c r="F3" s="13">
         <v>14.2</v>
       </c>
-      <c r="G3" s="17">
-        <v>5860</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5947</v>
+      <c r="G3" s="16">
+        <v>5.86</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5.9470000000000001</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -924,22 +945,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.22615894339714732</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.81067268642864587</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <v>-0.79159999999999997</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <v>-0.24779999999999999</v>
       </c>
     </row>
@@ -963,11 +984,11 @@
       <c r="F4" s="13">
         <v>14</v>
       </c>
-      <c r="G4" s="17">
-        <v>667</v>
-      </c>
-      <c r="H4" s="16">
-        <v>4322</v>
+      <c r="G4" s="16">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4.3220000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -981,22 +1002,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-3.8718946949203512E-2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.8329471347903874</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>-0.21540000000000001</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>-0.52939999999999998</v>
       </c>
     </row>
@@ -1020,11 +1041,11 @@
       <c r="F5" s="13">
         <v>15.4</v>
       </c>
-      <c r="G5" s="17">
-        <v>4438</v>
-      </c>
-      <c r="H5" s="16">
-        <v>15532</v>
+      <c r="G5" s="16">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H5" s="25">
+        <v>15.532</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1038,22 +1059,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.13857970350745838</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.67702599625819671</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="22">
         <v>-1.2278</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="22">
         <v>-0.59830000000000005</v>
       </c>
     </row>
@@ -1077,11 +1098,11 @@
       <c r="F6" s="13">
         <v>32.1</v>
       </c>
-      <c r="G6" s="17">
-        <v>6489</v>
-      </c>
-      <c r="H6" s="16">
-        <v>29768</v>
+      <c r="G6" s="16">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="H6" s="25">
+        <v>29.768000000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1095,22 +1116,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-2.4308152238892704E-2</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.1828904419472204</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <v>0.78100999999999998</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>-0.5181</v>
       </c>
     </row>
@@ -1134,11 +1155,11 @@
       <c r="F7" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="G7" s="17">
-        <v>548</v>
-      </c>
-      <c r="H7" s="16">
-        <v>2822</v>
+      <c r="G7" s="16">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2.8220000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1152,22 +1173,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.28113807089597298</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.17585090811901266</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>-0.93320000000000003</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <v>-0.67279999999999995</v>
       </c>
     </row>
@@ -1191,11 +1212,11 @@
       <c r="F8" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="G8" s="17">
-        <v>3392</v>
-      </c>
-      <c r="H8" s="16">
-        <v>8736</v>
+      <c r="G8" s="16">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="H8" s="25">
+        <v>8.7360000000000007</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1209,22 +1230,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.53293188127903934</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.59906542699210119</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <v>-0.56140000000000001</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="21">
         <v>0.38550000000000001</v>
       </c>
     </row>
@@ -1248,11 +1269,11 @@
       <c r="F9" s="13">
         <v>29.9</v>
       </c>
-      <c r="G9" s="17">
-        <v>3599</v>
-      </c>
-      <c r="H9" s="16">
-        <v>8632</v>
+      <c r="G9" s="16">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="H9" s="25">
+        <v>8.6319999999999997</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1266,22 +1287,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.32232971557783374</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.93787150996806334</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>0.30939</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <v>-9.4899999999999998E-2</v>
       </c>
     </row>
@@ -1305,11 +1326,12 @@
       <c r="F10" s="13">
         <v>13.6</v>
       </c>
-      <c r="G10" s="17">
-        <v>32115</v>
-      </c>
-      <c r="H10" s="16">
-        <v>79104</v>
+      <c r="G10" s="16">
+        <v>32.115000000000002</v>
+      </c>
+      <c r="H10" s="26">
+        <f>79104/1000</f>
+        <v>79.103999999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -1323,22 +1345,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>1.0588625670464942</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.87749603151387046</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <v>-0.66930000000000001</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <v>3.3317600000000001</v>
       </c>
     </row>
@@ -1362,11 +1384,12 @@
       <c r="F11" s="13">
         <v>26</v>
       </c>
-      <c r="G11" s="17">
-        <v>17469</v>
-      </c>
-      <c r="H11" s="16">
-        <v>42812</v>
+      <c r="G11" s="16">
+        <v>17.469000000000001</v>
+      </c>
+      <c r="H11" s="26">
+        <f>42812/1000</f>
+        <v>42.811999999999998</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1380,22 +1403,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.5968497924788736</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.50351976691410394</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="22">
         <v>8.0820000000000003E-2</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="22">
         <v>0.58370999999999995</v>
       </c>
     </row>
@@ -1419,11 +1442,11 @@
       <c r="F12" s="13">
         <v>37.6</v>
       </c>
-      <c r="G12" s="17">
-        <v>1312</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1165</v>
+      <c r="G12" s="16">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1.165</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1437,22 +1460,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-8.9858175428170164E-2</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.7954377718951122</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <v>1.10937</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="21">
         <v>-0.56659999999999999</v>
       </c>
     </row>
@@ -1476,11 +1499,11 @@
       <c r="F13" s="13">
         <v>18.8</v>
       </c>
-      <c r="G13" s="17">
-        <v>682</v>
-      </c>
-      <c r="H13" s="16">
-        <v>15443</v>
+      <c r="G13" s="16">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H13" s="25">
+        <v>15.443</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1494,22 +1517,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.41032955290705125</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.29836037410859079</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>-0.41010000000000002</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="22">
         <v>7.8030000000000002E-2</v>
       </c>
     </row>
@@ -1533,11 +1556,12 @@
       <c r="F14" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="G14" s="17">
-        <v>16071</v>
-      </c>
-      <c r="H14" s="16">
-        <v>75356</v>
+      <c r="G14" s="16">
+        <v>16.071000000000002</v>
+      </c>
+      <c r="H14" s="26">
+        <f>75356/1000</f>
+        <v>75.355999999999995</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -1551,22 +1575,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.81616086518387998</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.59906542699210119</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="21">
         <v>-0.4713</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="21">
         <v>1.53518</v>
       </c>
     </row>
@@ -1590,11 +1614,11 @@
       <c r="F15" s="13">
         <v>28.6</v>
       </c>
-      <c r="G15" s="17">
-        <v>8852</v>
-      </c>
-      <c r="H15" s="16">
-        <v>11808</v>
+      <c r="G15" s="16">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="H15" s="25">
+        <v>11.808</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1608,22 +1632,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.9347421290987312E-3</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.7930875956167438</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>0.24822</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="22">
         <v>-0.49980000000000002</v>
       </c>
     </row>
@@ -1647,11 +1671,11 @@
       <c r="F16" s="13">
         <v>8.9</v>
       </c>
-      <c r="G16" s="17">
-        <v>1709</v>
-      </c>
-      <c r="H16" s="16">
-        <v>4174</v>
+      <c r="G16" s="16">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="H16" s="25">
+        <v>4.1740000000000004</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -1665,22 +1689,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.11958202441083296</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-1.4009455680147962</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="21">
         <v>-0.82699999999999996</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="21">
         <v>-0.58630000000000004</v>
       </c>
     </row>
@@ -1704,11 +1728,11 @@
       <c r="F17" s="13">
         <v>8.6</v>
       </c>
-      <c r="G17" s="17">
-        <v>2327</v>
-      </c>
-      <c r="H17" s="16">
-        <v>8847</v>
+      <c r="G17" s="16">
+        <v>2.327</v>
+      </c>
+      <c r="H17" s="25">
+        <v>8.8469999999999995</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1722,22 +1746,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.38478516384002248</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-1.4343572405574085</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="22">
         <v>-0.86399999999999999</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="22">
         <v>2.419E-2</v>
       </c>
     </row>
@@ -1761,11 +1785,11 @@
       <c r="F18" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="G18" s="17">
-        <v>1249</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1771</v>
+      <c r="G18" s="16">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="H18" s="25">
+        <v>1.7709999999999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -1779,22 +1803,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.45621247637876733</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.54337930608774743</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="21">
         <v>-0.91549999999999998</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="21">
         <v>-0.73640000000000005</v>
       </c>
     </row>
@@ -1818,10 +1842,10 @@
       <c r="F19" s="13">
         <v>38.299999999999997</v>
       </c>
-      <c r="G19" s="17">
-        <v>598</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="G19" s="16">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H19" s="25">
         <v>0</v>
       </c>
       <c r="I19">
@@ -1836,22 +1860,22 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.6311183438236661</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.8733983411612072</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="22">
         <v>2.5757400000000001</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="22">
         <v>-0.85599999999999998</v>
       </c>
     </row>
@@ -1875,11 +1899,11 @@
       <c r="F20" s="13">
         <v>21.4</v>
       </c>
-      <c r="G20" s="17">
-        <v>1780</v>
-      </c>
-      <c r="H20" s="16">
-        <v>50</v>
+      <c r="G20" s="16">
+        <v>1.78</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.05</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -1893,27 +1917,27 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.9612209304444617</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-8.7925454059512454E-3</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="21">
         <v>1.48441</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="21">
         <v>-0.86060000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P21" s="25"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
